--- a/Pll/excel_list/test4.map.xlsx
+++ b/Pll/excel_list/test4.map.xlsx
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.001</v>
@@ -447,7 +447,7 @@
         <v>0.001</v>
       </c>
       <c r="G2">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -481,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.5376</v>
+        <v>0.2896</v>
       </c>
       <c r="D4">
-        <v>0.5436</v>
+        <v>0.2773</v>
       </c>
       <c r="E4">
-        <v>0.5386</v>
+        <v>0.2933</v>
       </c>
       <c r="F4">
-        <v>0.5376</v>
+        <v>0.2978</v>
       </c>
       <c r="G4">
-        <v>0.5415</v>
+        <v>0.3477</v>
       </c>
     </row>
   </sheetData>
